--- a/biology/Botanique/Tapinanthus_letouzeyi/Tapinanthus_letouzeyi.xlsx
+++ b/biology/Botanique/Tapinanthus_letouzeyi/Tapinanthus_letouzeyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapinanthus letouzeyi (Balle) Polhill &amp; Wiens est une espèce d'arbustes épiphytes  de la famille des Loranthaceae et du genre Tapinanthus, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique letouzeyi rend hommage au botaniste français René Letouzey, collecteur au Cameroun entre 1945 et 1967, et notamment dans cette région[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique letouzeyi rend hommage au botaniste français René Letouzey, collecteur au Cameroun entre 1945 et 1967, et notamment dans cette région.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante endémique du Cameroun dont on ne connaît qu'un petit nombre de localisations dans la région du Nord-Ouest, principalement à travers des collections datant de 1996 ou avant[4]. Ainsi, à Elak (Kilum), elle a été collectée en juin 1996 par Louis Zapfack à une altitude de 2 300 m[5]. Les autres sites de collecte étaient : le lac Oku, le mont Neshele, à 10 km à l'est (ESE) de Bamenda, Santa, Kondo, à 40 km au nord-ouest de Bamenda. Dans la réserve forestière de Bafut Ngemba, elle est probablement éteinte à ce jour, du fait de la déforestation[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante endémique du Cameroun dont on ne connaît qu'un petit nombre de localisations dans la région du Nord-Ouest, principalement à travers des collections datant de 1996 ou avant. Ainsi, à Elak (Kilum), elle a été collectée en juin 1996 par Louis Zapfack à une altitude de 2 300 m. Les autres sites de collecte étaient : le lac Oku, le mont Neshele, à 10 km à l'est (ESE) de Bamenda, Santa, Kondo, à 40 km au nord-ouest de Bamenda. Dans la réserve forestière de Bafut Ngemba, elle est probablement éteinte à ce jour, du fait de la déforestation.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord considérée comme « vulnérable » selon les critères de l'UICN, l'espèce a été réévaluée comme « en danger » (EN), en raison du nombre réduit de sites et des menaces qui pèsent sur son environnement (abattage d'arbres pour le chauffage et l'agriculture)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord considérée comme « vulnérable » selon les critères de l'UICN, l'espèce a été réévaluée comme « en danger » (EN), en raison du nombre réduit de sites et des menaces qui pèsent sur son environnement (abattage d'arbres pour le chauffage et l'agriculture).
 </t>
         </is>
       </c>
